--- a/varQ.xlsx
+++ b/varQ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92006471\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d8f3b2df7dd2c83/UTFPR/ACV - Cassia/Projeto ACV/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_97729173C4F8E3EA5E04B8ADBB8373481F520842" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CB97E38-D1D8-4C57-BAF3-5F19AF0D050D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>c1</t>
   </si>
   <si>
     <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>c4</t>
   </si>
   <si>
     <t>l1</t>
@@ -47,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,6 +108,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,61 +376,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
